--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -258,17 +258,23 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,16 +288,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1014,11 +1014,11 @@
         </c:dLbls>
         <c:gapWidth val="355"/>
         <c:overlap val="-70"/>
-        <c:axId val="169591920"/>
-        <c:axId val="169264104"/>
+        <c:axId val="120137176"/>
+        <c:axId val="166993296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169591920"/>
+        <c:axId val="120137176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1061,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169264104"/>
+        <c:crossAx val="166993296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1069,7 +1069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169264104"/>
+        <c:axId val="166993296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,7 +1187,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169591920"/>
+        <c:crossAx val="120137176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1519,11 +1519,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188358040"/>
-        <c:axId val="168228384"/>
+        <c:axId val="167026096"/>
+        <c:axId val="167441128"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="188358040"/>
+        <c:axId val="167026096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,7 +1566,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168228384"/>
+        <c:crossAx val="167441128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1574,7 +1574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168228384"/>
+        <c:axId val="167441128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +1625,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188358040"/>
+        <c:crossAx val="167026096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1835,11 +1835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="168229168"/>
-        <c:axId val="188108320"/>
+        <c:axId val="167404240"/>
+        <c:axId val="167465696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168229168"/>
+        <c:axId val="167404240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1882,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188108320"/>
+        <c:crossAx val="167465696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1890,7 +1890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188108320"/>
+        <c:axId val="167465696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +1941,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168229168"/>
+        <c:crossAx val="167404240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4072,8 +4072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,109 +4092,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="12"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="9"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
       <c r="M8" s="12"/>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.25">
@@ -4214,10 +4214,10 @@
       </c>
     </row>
     <row r="49" spans="5:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="22"/>
+      <c r="F49" s="24"/>
       <c r="G49" s="13" t="s">
         <v>16</v>
       </c>
@@ -4232,10 +4232,10 @@
       </c>
     </row>
     <row r="50" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="24"/>
+      <c r="F50" s="26"/>
       <c r="G50" s="14"/>
       <c r="H50" s="3">
         <v>2</v>
@@ -4246,10 +4246,10 @@
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="17"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="15"/>
       <c r="H51" s="3">
         <v>2</v>
@@ -4260,10 +4260,10 @@
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="17"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="15"/>
       <c r="H52" s="3">
         <v>3</v>
@@ -4274,56 +4274,56 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="15"/>
       <c r="H53" s="3"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
       <c r="G54" s="15"/>
       <c r="H54" s="3"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
       <c r="G55" s="15"/>
       <c r="H55" s="3"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="15"/>
       <c r="H56" s="3"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="15"/>
       <c r="H57" s="3"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
       <c r="G58" s="15"/>
       <c r="H58" s="5"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
       <c r="G59" s="15"/>
       <c r="H59" s="7"/>
       <c r="I59" s="4"/>
@@ -4338,27 +4338,16 @@
       <c r="J60" s="6"/>
     </row>
     <row r="62" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
       <c r="I62" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="K7:L7"/>
@@ -4375,6 +4364,17 @@
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -258,17 +258,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +286,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1014,11 +1014,11 @@
         </c:dLbls>
         <c:gapWidth val="355"/>
         <c:overlap val="-70"/>
-        <c:axId val="120137176"/>
-        <c:axId val="166993296"/>
+        <c:axId val="166571584"/>
+        <c:axId val="166151496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120137176"/>
+        <c:axId val="166571584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1061,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166993296"/>
+        <c:crossAx val="166151496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1069,7 +1069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166993296"/>
+        <c:axId val="166151496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,7 +1187,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120137176"/>
+        <c:crossAx val="166571584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1289,11 +1289,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1302,7 +1302,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-MX" cap="all" baseline="0"/>
+              <a:rPr lang="es-MX"/>
               <a:t>Análisis de cobertura de Requisitos</a:t>
             </a:r>
           </a:p>
@@ -1322,11 +1322,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1359,42 +1359,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="10196"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1447,42 +1422,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="10196"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1519,11 +1471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167026096"/>
-        <c:axId val="167441128"/>
+        <c:axId val="190032504"/>
+        <c:axId val="190032888"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="167026096"/>
+        <c:axId val="190032504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,9 +1487,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1553,9 +1505,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1566,7 +1518,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167441128"/>
+        <c:crossAx val="190032888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1574,7 +1526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167441128"/>
+        <c:axId val="190032888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1584,7 +1536,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1612,9 +1564,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1625,7 +1577,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167026096"/>
+        <c:crossAx val="190032504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1655,9 +1607,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1674,12 +1626,25 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1740,9 +1705,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-CR"/>
-              <a:t>Comparación entre AC y ECE</a:t>
+              <a:rPr lang="es-CR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Aporte de AC (60%) y ECE (40%) a la calificación</a:t>
             </a:r>
+            <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1835,11 +1801,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167404240"/>
-        <c:axId val="167465696"/>
+        <c:axId val="165158720"/>
+        <c:axId val="165159112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167404240"/>
+        <c:axId val="165158720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1848,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167465696"/>
+        <c:crossAx val="165159112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1890,7 +1856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167465696"/>
+        <c:axId val="165159112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +1907,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167404240"/>
+        <c:crossAx val="165158720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2708,33 +2674,33 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="351">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="319">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2744,20 +2710,33 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2772,9 +2751,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2791,16 +2770,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2808,72 +2782,107 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="10196"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="50800">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="30000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="10196"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="50800">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="30000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="50800" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="30000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2889,16 +2898,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2913,20 +2921,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2940,14 +2948,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2959,14 +2966,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -2975,7 +2981,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2988,7 +2994,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3007,7 +3013,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -3024,33 +3030,31 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3059,9 +3063,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3071,7 +3075,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -3079,7 +3083,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3088,19 +3092,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3113,14 +3116,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3129,27 +3131,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3158,9 +3163,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3170,7 +3175,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3178,9 +3183,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3191,9 +3196,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3203,7 +3208,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -4072,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:K6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,109 +4097,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
       <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
       <c r="M2" s="12"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="9"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="12"/>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.25">
@@ -4214,10 +4219,10 @@
       </c>
     </row>
     <row r="49" spans="5:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="24"/>
+      <c r="F49" s="22"/>
       <c r="G49" s="13" t="s">
         <v>16</v>
       </c>
@@ -4232,10 +4237,10 @@
       </c>
     </row>
     <row r="50" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="26"/>
+      <c r="F50" s="24"/>
       <c r="G50" s="14"/>
       <c r="H50" s="3">
         <v>2</v>
@@ -4246,10 +4251,10 @@
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="22"/>
+      <c r="F51" s="20"/>
       <c r="G51" s="15"/>
       <c r="H51" s="3">
         <v>2</v>
@@ -4260,10 +4265,10 @@
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="22"/>
+      <c r="F52" s="20"/>
       <c r="G52" s="15"/>
       <c r="H52" s="3">
         <v>3</v>
@@ -4274,56 +4279,56 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
       <c r="G53" s="15"/>
       <c r="H53" s="3"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
       <c r="G54" s="15"/>
       <c r="H54" s="3"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="15"/>
       <c r="H55" s="3"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="15"/>
       <c r="H56" s="3"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
       <c r="G57" s="15"/>
       <c r="H57" s="3"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
       <c r="G58" s="15"/>
       <c r="H58" s="5"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
       <c r="G59" s="15"/>
       <c r="H59" s="7"/>
       <c r="I59" s="4"/>
@@ -4338,16 +4343,30 @@
       <c r="J60" s="6"/>
     </row>
     <row r="62" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
       <c r="I62" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="K7:L7"/>
@@ -4364,20 +4383,6 @@
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Modelo de Gestión por Competencias</t>
   </si>
@@ -77,6 +77,9 @@
     <t>Variable equivalente</t>
   </si>
   <si>
+    <t>Column1</t>
+  </si>
+  <si>
     <t>AC</t>
   </si>
   <si>
@@ -87,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +149,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -167,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -216,27 +231,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -248,41 +338,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -294,11 +409,176 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -332,7 +612,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -345,14 +625,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-MX"/>
-              <a:t>Valoración</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Valoración Relativa</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-MX" baseline="0"/>
-              <a:t> relativa</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -370,7 +645,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -392,614 +667,218 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$E$50</c:f>
+              <c:f>Hoja1!$H$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Capacitación Formal</c:v>
+                  <c:v>Valor Relativo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1"/>
-                </a:gs>
-                <a:gs pos="75000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$E$49</c:f>
+              <c:f>Hoja1!$E$52:$E$62</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Méritos y Habilidades</c:v>
+                  <c:v>Capacitación Formal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capacitación Complementaria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Experiencia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$50</c:f>
+              <c:f>Hoja1!$H$52:$H$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$E$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Capacitación Complementaria</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2"/>
-                </a:gs>
-                <a:gs pos="75000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent2">
-                    <a:alpha val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$E$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Méritos y Habilidades</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$H$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$E$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Experiencia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3"/>
-                </a:gs>
-                <a:gs pos="75000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent3">
-                    <a:alpha val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$E$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Méritos y Habilidades</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$H$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$E$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4"/>
-                </a:gs>
-                <a:gs pos="75000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent4">
-                    <a:alpha val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$H$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$E$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5"/>
-                </a:gs>
-                <a:gs pos="75000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent5">
-                    <a:alpha val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$H$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$E$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6"/>
-                </a:gs>
-                <a:gs pos="75000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent6">
-                    <a:alpha val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$H$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$E$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="75000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:alpha val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$H$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$E$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="75000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:alpha val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$H$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="75000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:alpha val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$H$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$E$59</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="75000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:alpha val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$H$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1012,13 +891,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="355"/>
-        <c:overlap val="-70"/>
-        <c:axId val="166571584"/>
-        <c:axId val="166151496"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="168189784"/>
+        <c:axId val="168190168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="166571584"/>
+        <c:axId val="168189784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +940,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166151496"/>
+        <c:crossAx val="168190168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1069,7 +948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166151496"/>
+        <c:axId val="168190168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,23 +957,12 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="5000"/>
-                      <a:lumOff val="95000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="25000"/>
-                      <a:lumOff val="75000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1107,7 +975,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1120,7 +988,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-MX" cap="none" baseline="0"/>
+                  <a:rPr lang="es-CR"/>
                   <a:t>Ponderación</a:t>
                 </a:r>
               </a:p>
@@ -1140,7 +1008,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1187,7 +1055,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166571584"/>
+        <c:crossAx val="168189784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1199,38 +1067,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1289,11 +1125,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1302,8 +1138,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-MX"/>
-              <a:t>Análisis de cobertura de Requisitos</a:t>
+              <a:rPr lang="es-CR"/>
+              <a:t>Análisis de Cobertura de Requisitos</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1322,11 +1158,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1342,14 +1178,14 @@
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
-        <c:radarStyle val="filled"/>
+        <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$49</c:f>
+              <c:f>Hoja1!$I$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1359,21 +1195,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:alpha val="10196"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="50800">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$E$50:$E$59</c:f>
+              <c:f>Hoja1!$E$52:$E$62</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1390,10 +1225,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$50:$I$59</c:f>
+              <c:f>Hoja1!$I$52:$I$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1403,16 +1238,31 @@
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$49</c:f>
+              <c:f>Hoja1!$J$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1422,23 +1272,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:alpha val="10196"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="50800">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$E$50:$E$59</c:f>
+              <c:f>Hoja1!$E$52:$E$62</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1455,10 +1302,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$50:$J$59</c:f>
+              <c:f>Hoja1!$J$52:$J$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1471,11 +1342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190032504"/>
-        <c:axId val="190032888"/>
+        <c:axId val="167928240"/>
+        <c:axId val="168635992"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="190032504"/>
+        <c:axId val="167928240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,7 +1360,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1505,9 +1376,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1518,7 +1389,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190032888"/>
+        <c:crossAx val="168635992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1526,7 +1397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190032888"/>
+        <c:axId val="168635992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,7 +1407,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1564,9 +1435,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1577,7 +1448,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190032504"/>
+        <c:crossAx val="167928240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1607,9 +1478,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1626,25 +1497,12 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="43000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1705,10 +1563,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-CR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:rPr lang="es-CR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Aporte de AC (60%) y ECE (40%) a la calificación</a:t>
             </a:r>
-            <a:endParaRPr lang="es-CR"/>
+            <a:endParaRPr lang="es-CR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1764,7 +1626,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$F$47:$G$47</c:f>
+              <c:f>Hoja1!$H$49:$I$49</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1778,15 +1640,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$48:$G$48</c:f>
+              <c:f>Hoja1!$H$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,12 +1662,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="165158720"/>
-        <c:axId val="165159112"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="167128160"/>
+        <c:axId val="167128552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165158720"/>
+        <c:axId val="167128160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,7 +1711,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165159112"/>
+        <c:crossAx val="167128552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1856,7 +1719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165159112"/>
+        <c:axId val="167128552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1770,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165158720"/>
+        <c:crossAx val="167128160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2077,7 +1940,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="210">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2088,7 +1951,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2118,7 +1981,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2134,7 +1997,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2153,15 +2016,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2170,88 +2041,32 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="75000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="51000">
-            <a:schemeClr val="phClr">
-              <a:alpha val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-              <a:alpha val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="75000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="51000">
-            <a:schemeClr val="phClr">
-              <a:alpha val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-              <a:alpha val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -2266,59 +2081,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="75000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="51000">
-            <a:schemeClr val="phClr">
-              <a:alpha val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-              <a:alpha val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2340,13 +2126,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2357,6 +2145,509 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2365,13 +2656,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2380,16 +2672,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2398,7 +2691,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2417,35 +2710,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2455,27 +2743,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2485,16 +2762,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2503,16 +2781,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2533,7 +2812,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2541,7 +2820,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2554,19 +2833,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:headEnd type="none" w="sm" len="sm"/>
-        <a:tailEnd type="none" w="sm" len="sm"/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2574,10 +2840,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2598,7 +2864,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2607,13 +2873,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2634,19 +2901,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2667,549 +2935,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="319">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="43000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="10196"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="50800">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="30000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="10196"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="50800">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="30000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="50800" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="30000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3722,19 +3455,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>784225</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>74082</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3752,19 +3485,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>84668</xdr:colOff>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>5820</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3782,19 +3515,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:colOff>342898</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3810,6 +3543,21 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="E51:J62" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="E51:J62"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="3"/>
+    <tableColumn id="2" name="Column1"/>
+    <tableColumn id="3" name="Variable equivalente"/>
+    <tableColumn id="4" name="Valor Relativo" dataDxfId="2"/>
+    <tableColumn id="5" name="Candidato Ideal" dataDxfId="1"/>
+    <tableColumn id="6" name="Calificación" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4075,21 +3823,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.140625" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" customWidth="1"/>
@@ -4097,262 +3846,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="11"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="12"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="18" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="18" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="9"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-    </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="12"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="7"/>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F47" s="16" t="s">
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E49" s="36"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E50" s="36"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="27">
+        <v>2</v>
+      </c>
+      <c r="I50" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E51" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F48" s="16">
-        <v>1.8</v>
-      </c>
-      <c r="G48" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="E49" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="13" t="s">
+      <c r="G51" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H51" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I51" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J51" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E50" s="23" t="s">
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="3">
+      <c r="F52" s="3"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="2">
         <v>2</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I52" s="2">
         <v>2</v>
       </c>
-      <c r="J50" s="4"/>
+      <c r="J52" s="11">
+        <v>3</v>
+      </c>
     </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E51" s="20" t="s">
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="20"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="3">
+      <c r="F53" s="3"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="2">
         <v>2</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I53" s="2">
         <v>2</v>
       </c>
-      <c r="J51" s="4"/>
+      <c r="J53" s="11">
+        <v>3</v>
+      </c>
     </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E52" s="20" t="s">
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E54" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="3">
+      <c r="F54" s="3"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="17">
         <v>3</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I54" s="17">
         <v>3</v>
       </c>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="J54" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2">
+        <v>4</v>
+      </c>
+      <c r="J55" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2">
+        <v>3</v>
+      </c>
+      <c r="J56" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2">
+        <v>2</v>
+      </c>
+      <c r="J57" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2">
+        <v>2</v>
+      </c>
+      <c r="J58" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17">
+        <v>3</v>
+      </c>
+      <c r="J59" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E61" s="3"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
     </row>
     <row r="62" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="3"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E64" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="10"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="17">
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:L1"/>
@@ -4364,28 +4146,18 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G64:H64"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E64:F64"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,14 +391,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,7 +419,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,9 +631,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Valoración Relativa</a:t>
+              <a:rPr lang="es-CR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Análisis de Cobertura de Requisitos</a:t>
             </a:r>
+            <a:endParaRPr lang="es-CR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -640,26 +651,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -673,180 +664,25 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$51</c:f>
+              <c:f>Hoja1!$I$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valor Relativo</c:v>
+                  <c:v>Candidato Ideal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$E$52:$E$62</c:f>
@@ -866,7 +702,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$52:$H$62</c:f>
+              <c:f>Hoja1!$I$52:$I$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -877,6 +713,96 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$E$52:$E$62</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Capacitación Formal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capacitación Complementaria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Experiencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$52:$J$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -893,11 +819,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="168189784"/>
-        <c:axId val="168190168"/>
+        <c:axId val="168196136"/>
+        <c:axId val="168196520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168189784"/>
+        <c:axId val="168196136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,7 +866,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168190168"/>
+        <c:crossAx val="168196520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -948,7 +874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168190168"/>
+        <c:axId val="168196520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,26 +929,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1055,7 +961,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168189784"/>
+        <c:crossAx val="168196136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1067,6 +973,11 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1342,11 +1253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167928240"/>
-        <c:axId val="168635992"/>
+        <c:axId val="188155976"/>
+        <c:axId val="188156360"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="167928240"/>
+        <c:axId val="188155976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1300,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168635992"/>
+        <c:crossAx val="188156360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1397,7 +1308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168635992"/>
+        <c:axId val="188156360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1359,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167928240"/>
+        <c:crossAx val="188155976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1574,7 +1485,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1664,11 +1574,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="167128160"/>
-        <c:axId val="167128552"/>
+        <c:axId val="168901592"/>
+        <c:axId val="168282024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167128160"/>
+        <c:axId val="168901592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1621,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167128552"/>
+        <c:crossAx val="168282024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1719,7 +1629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167128552"/>
+        <c:axId val="168282024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1680,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167128160"/>
+        <c:crossAx val="168901592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1899,48 +1809,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2144,509 +2014,6 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -2947,7 +2314,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3825,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49:I50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,106 +3213,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="7"/>
     </row>
     <row r="49" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E49" s="36"/>
+      <c r="E49" s="29"/>
       <c r="F49" s="27"/>
-      <c r="G49" s="36"/>
+      <c r="G49" s="29"/>
       <c r="H49" s="27" t="s">
         <v>18</v>
       </c>
@@ -3954,9 +3321,9 @@
       </c>
     </row>
     <row r="50" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E50" s="36"/>
+      <c r="E50" s="29"/>
       <c r="F50" s="27"/>
-      <c r="G50" s="36"/>
+      <c r="G50" s="29"/>
       <c r="H50" s="27">
         <v>2</v>
       </c>
@@ -4125,12 +3492,12 @@
       <c r="J63" s="26"/>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="31" t="s">
+      <c r="E64" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="31"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
       <c r="I64" s="5"/>
     </row>
   </sheetData>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -392,18 +392,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -418,6 +406,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,11 +819,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="168196136"/>
-        <c:axId val="168196520"/>
+        <c:axId val="158764488"/>
+        <c:axId val="158778616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168196136"/>
+        <c:axId val="158764488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,7 +866,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168196520"/>
+        <c:crossAx val="158778616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -874,7 +874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168196520"/>
+        <c:axId val="158778616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -961,7 +961,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168196136"/>
+        <c:crossAx val="158764488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1253,11 +1253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188155976"/>
-        <c:axId val="188156360"/>
+        <c:axId val="183893032"/>
+        <c:axId val="183897512"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="188155976"/>
+        <c:axId val="183893032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1300,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188156360"/>
+        <c:crossAx val="183897512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1308,7 +1308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188156360"/>
+        <c:axId val="183897512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1359,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188155976"/>
+        <c:crossAx val="183893032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,6 +1485,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1534,6 +1535,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$H$49:$I$49</c:f>
@@ -1574,11 +1633,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="168901592"/>
-        <c:axId val="168282024"/>
+        <c:axId val="183718008"/>
+        <c:axId val="183916432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168901592"/>
+        <c:axId val="183718008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +1680,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168282024"/>
+        <c:crossAx val="183916432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1629,7 +1688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168282024"/>
+        <c:axId val="183916432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,7 +1739,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168901592"/>
+        <c:crossAx val="183718008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3192,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:K5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3213,100 +3272,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="7"/>
     </row>
     <row r="49" spans="5:10" x14ac:dyDescent="0.25">
@@ -3492,16 +3551,21 @@
       <c r="J63" s="26"/>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="33" t="s">
+      <c r="E64" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="33"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
       <c r="I64" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E64:F64"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:L1"/>
@@ -3514,11 +3578,6 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E64:F64"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -685,7 +684,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$E$52:$E$62</c:f>
+              <c:f>Hoja1!$E$52:$E$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -702,10 +701,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$52:$I$62</c:f>
+              <c:f>Hoja1!$I$52:$I$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -760,7 +759,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$E$52:$E$62</c:f>
+              <c:f>Hoja1!$E$52:$E$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -777,10 +776,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$52:$J$62</c:f>
+              <c:f>Hoja1!$J$52:$J$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -819,11 +818,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="158764488"/>
-        <c:axId val="158778616"/>
+        <c:axId val="220755504"/>
+        <c:axId val="220755896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158764488"/>
+        <c:axId val="220755504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,7 +865,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158778616"/>
+        <c:crossAx val="220755896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -874,7 +873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158778616"/>
+        <c:axId val="220755896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +919,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -961,7 +959,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158764488"/>
+        <c:crossAx val="220755504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -975,7 +973,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1055,7 +1052,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1119,7 +1115,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$E$52:$E$62</c:f>
+              <c:f>Hoja1!$E$52:$E$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1136,10 +1132,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$52:$I$62</c:f>
+              <c:f>Hoja1!$I$52:$I$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1196,7 +1192,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$E$52:$E$62</c:f>
+              <c:f>Hoja1!$E$52:$E$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1213,10 +1209,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$52:$J$62</c:f>
+              <c:f>Hoja1!$J$52:$J$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1253,11 +1249,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183893032"/>
-        <c:axId val="183897512"/>
+        <c:axId val="220756680"/>
+        <c:axId val="220757072"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="183893032"/>
+        <c:axId val="220756680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1296,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183897512"/>
+        <c:crossAx val="220757072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1308,7 +1304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183897512"/>
+        <c:axId val="220757072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1355,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183893032"/>
+        <c:crossAx val="220756680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1373,7 +1369,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1633,11 +1628,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="183718008"/>
-        <c:axId val="183916432"/>
+        <c:axId val="157751384"/>
+        <c:axId val="157749424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183718008"/>
+        <c:axId val="157751384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,7 +1675,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183916432"/>
+        <c:crossAx val="157749424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1688,7 +1683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183916432"/>
+        <c:axId val="157749424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1734,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183718008"/>
+        <c:crossAx val="157751384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2972,8 +2967,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="E51:J62" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="E51:J62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="E51:J61" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="E51:J61"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="3"/>
     <tableColumn id="2" name="Column1"/>
@@ -3251,7 +3246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Modelo de Gestión por Competencias</t>
   </si>
@@ -74,23 +74,26 @@
     <t>Promedio ponderado</t>
   </si>
   <si>
-    <t>Variable equivalente</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
     <t>ECE</t>
+  </si>
+  <si>
+    <t>Método seleccionado</t>
+  </si>
+  <si>
+    <t>Calificación VE</t>
+  </si>
+  <si>
+    <t>Variable equivalente (VE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +164,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,14 +185,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -233,50 +237,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -310,15 +270,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -332,53 +283,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,22 +319,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -417,13 +364,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -519,7 +516,40 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -542,46 +572,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -642,6 +632,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -663,7 +654,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$51</c:f>
+              <c:f>Hoja1!$H$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -684,7 +675,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$E$52:$E$61</c:f>
+              <c:f>Hoja1!$C$52:$C$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -701,7 +692,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$52:$I$61</c:f>
+              <c:f>Hoja1!$H$52:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -738,7 +729,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$51</c:f>
+              <c:f>Hoja1!$I$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -759,7 +750,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$E$52:$E$61</c:f>
+              <c:f>Hoja1!$C$52:$C$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -776,7 +767,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$52:$J$61</c:f>
+              <c:f>Hoja1!$I$52:$I$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -818,11 +809,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="220755504"/>
-        <c:axId val="220755896"/>
+        <c:axId val="157428520"/>
+        <c:axId val="157428912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220755504"/>
+        <c:axId val="157428520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +856,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220755896"/>
+        <c:crossAx val="157428912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -873,7 +864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220755896"/>
+        <c:axId val="157428912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,6 +910,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -959,7 +951,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220755504"/>
+        <c:crossAx val="157428520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -973,6 +965,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1052,6 +1045,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1092,7 +1086,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$51</c:f>
+              <c:f>Hoja1!$H$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1115,7 +1109,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$E$52:$E$61</c:f>
+              <c:f>Hoja1!$C$52:$C$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1132,7 +1126,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$52:$I$61</c:f>
+              <c:f>Hoja1!$H$52:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1169,7 +1163,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$51</c:f>
+              <c:f>Hoja1!$I$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1192,7 +1186,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$E$52:$E$61</c:f>
+              <c:f>Hoja1!$C$52:$C$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1209,7 +1203,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$52:$J$61</c:f>
+              <c:f>Hoja1!$I$52:$I$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1249,11 +1243,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220756680"/>
-        <c:axId val="220757072"/>
+        <c:axId val="157429696"/>
+        <c:axId val="157430088"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="220756680"/>
+        <c:axId val="157429696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1290,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220757072"/>
+        <c:crossAx val="157430088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1304,7 +1298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220757072"/>
+        <c:axId val="157430088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,7 +1349,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220756680"/>
+        <c:crossAx val="157429696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1369,6 +1363,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1628,11 +1623,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="157751384"/>
-        <c:axId val="157749424"/>
+        <c:axId val="157430872"/>
+        <c:axId val="157431264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157751384"/>
+        <c:axId val="157430872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1670,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157749424"/>
+        <c:crossAx val="157431264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1683,7 +1678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157749424"/>
+        <c:axId val="157431264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,7 +1729,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157751384"/>
+        <c:crossAx val="157430872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2905,16 +2900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2935,16 +2930,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342898</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>990598</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2967,15 +2962,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="E51:J61" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="E51:J61"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="3"/>
-    <tableColumn id="2" name="Column1"/>
-    <tableColumn id="3" name="Variable equivalente"/>
-    <tableColumn id="4" name="Valor Relativo" dataDxfId="2"/>
-    <tableColumn id="5" name="Candidato Ideal" dataDxfId="1"/>
-    <tableColumn id="6" name="Calificación" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C51:I61" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="C51:I61"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="7"/>
+    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="6"/>
+    <tableColumn id="3" name="Método seleccionado"/>
+    <tableColumn id="8" name="Calificación VE" dataDxfId="5"/>
+    <tableColumn id="4" name="Valor Relativo" dataDxfId="4"/>
+    <tableColumn id="5" name="Candidato Ideal" dataDxfId="3"/>
+    <tableColumn id="6" name="Calificación" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3244,29 +3240,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="0.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -3281,9 +3279,10 @@
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
-      <c r="M1" s="6"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
@@ -3298,55 +3297,59 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
-      <c r="M2" s="7"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="34" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="34" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="1"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="34" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="34" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="1"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="34" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="1"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
@@ -3361,218 +3364,239 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E49" s="29"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="27" t="s">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17">
+        <v>2</v>
+      </c>
+      <c r="I50" s="17">
+        <v>1</v>
+      </c>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="27" t="s">
+      <c r="F51" s="36" t="s">
         <v>19</v>
       </c>
+      <c r="G51" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="37" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E50" s="29"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="27">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="2">
         <v>2</v>
       </c>
-      <c r="I50" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E51" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E52" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="8"/>
       <c r="H52" s="2">
         <v>2</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="2">
         <v>2</v>
       </c>
-      <c r="J52" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="8"/>
       <c r="H53" s="2">
         <v>2</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="9">
+        <v>3</v>
+      </c>
+      <c r="H54" s="9">
+        <v>3</v>
+      </c>
+      <c r="I54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="20"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2">
+        <v>4</v>
+      </c>
+      <c r="I55" s="8">
         <v>2</v>
       </c>
-      <c r="J53" s="11">
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="20"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2">
         <v>3</v>
       </c>
+      <c r="I56" s="8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="17">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="20"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2">
+        <v>2</v>
+      </c>
+      <c r="I57" s="8">
         <v>3</v>
       </c>
-      <c r="I54" s="17">
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="14"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2">
+        <v>2</v>
+      </c>
+      <c r="I58" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C59" s="14"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9">
         <v>3</v>
       </c>
-      <c r="J54" s="18">
-        <v>1</v>
+      <c r="I59" s="10">
+        <v>3</v>
       </c>
     </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="9"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2">
-        <v>4</v>
-      </c>
-      <c r="J55" s="11">
-        <v>2</v>
-      </c>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" s="14"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="10"/>
     </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E56" s="9"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2">
-        <v>3</v>
-      </c>
-      <c r="J56" s="11">
-        <v>3</v>
-      </c>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C61" s="13"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
     </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E57" s="9"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2">
-        <v>2</v>
-      </c>
-      <c r="J57" s="11">
-        <v>3</v>
-      </c>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
     </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E58" s="16"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2">
-        <v>2</v>
-      </c>
-      <c r="J58" s="11">
-        <v>2</v>
-      </c>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
     </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E59" s="16"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17">
-        <v>3</v>
-      </c>
-      <c r="J59" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E60" s="16"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="18"/>
-    </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E61" s="3"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-    </row>
-    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E62" s="3"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-    </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-    </row>
-    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="38" t="s">
+    <row r="64" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E64" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="38"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="5"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="31">
+        <v>2.356789</v>
+      </c>
+      <c r="H64" s="31"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A8:L8"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Modelo de Gestión por Competencias</t>
   </si>
@@ -88,12 +88,18 @@
   <si>
     <t>Variable equivalente (VE)</t>
   </si>
+  <si>
+    <t>Firma Evaluador</t>
+  </si>
+  <si>
+    <t>Firma Colaborador</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +177,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -186,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -270,11 +284,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,17 +371,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,67 +400,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -574,6 +561,52 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -632,7 +665,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -654,7 +686,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$51</c:f>
+              <c:f>Hoja1!$G$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -675,7 +707,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$C$52:$C$61</c:f>
+              <c:f>Hoja1!$B$54:$B$62</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -692,10 +724,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$52:$H$61</c:f>
+              <c:f>Hoja1!$G$54:$G$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -729,7 +761,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$51</c:f>
+              <c:f>Hoja1!$H$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -750,7 +782,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$C$52:$C$61</c:f>
+              <c:f>Hoja1!$B$54:$B$62</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -767,10 +799,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$52:$I$61</c:f>
+              <c:f>Hoja1!$H$54:$H$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -809,11 +841,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="157428520"/>
-        <c:axId val="157428912"/>
+        <c:axId val="185986872"/>
+        <c:axId val="185987256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157428520"/>
+        <c:axId val="185986872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +888,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157428912"/>
+        <c:crossAx val="185987256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -864,7 +896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157428912"/>
+        <c:axId val="185987256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +942,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -951,7 +982,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157428520"/>
+        <c:crossAx val="185986872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -965,7 +996,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1045,7 +1075,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1086,7 +1115,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$51</c:f>
+              <c:f>Hoja1!$G$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1109,7 +1138,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$C$52:$C$61</c:f>
+              <c:f>Hoja1!$B$54:$B$62</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1126,10 +1155,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$52:$H$61</c:f>
+              <c:f>Hoja1!$G$54:$G$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1163,7 +1192,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$51</c:f>
+              <c:f>Hoja1!$H$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1186,7 +1215,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$C$52:$C$61</c:f>
+              <c:f>Hoja1!$B$54:$B$62</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1203,10 +1232,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$52:$I$61</c:f>
+              <c:f>Hoja1!$H$54:$H$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1243,11 +1272,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157429696"/>
-        <c:axId val="157430088"/>
+        <c:axId val="186796304"/>
+        <c:axId val="162269664"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="157429696"/>
+        <c:axId val="186796304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1319,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157430088"/>
+        <c:crossAx val="162269664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1298,7 +1327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157430088"/>
+        <c:axId val="162269664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1378,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157429696"/>
+        <c:crossAx val="186796304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1363,7 +1392,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1585,7 +1613,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$H$49:$I$49</c:f>
+              <c:f>Hoja1!$G$49:$H$49</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1599,7 +1627,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$50:$I$50</c:f>
+              <c:f>Hoja1!$G$50:$H$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1623,11 +1651,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="157430872"/>
-        <c:axId val="157431264"/>
+        <c:axId val="162270448"/>
+        <c:axId val="186556056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157430872"/>
+        <c:axId val="162270448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1698,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157431264"/>
+        <c:crossAx val="186556056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1678,7 +1706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157431264"/>
+        <c:axId val="186556056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1757,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157430872"/>
+        <c:crossAx val="162270448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1773,7 +1801,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2871,15 +2899,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2900,16 +2928,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:rowOff>4760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2930,16 +2958,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>990598</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514347</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2962,16 +2990,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C51:I61" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="C51:I61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B53:H62" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="B53:H62"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="7"/>
-    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="6"/>
+    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="5"/>
+    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="4"/>
     <tableColumn id="3" name="Método seleccionado"/>
-    <tableColumn id="8" name="Calificación VE" dataDxfId="5"/>
-    <tableColumn id="4" name="Valor Relativo" dataDxfId="4"/>
-    <tableColumn id="5" name="Candidato Ideal" dataDxfId="3"/>
-    <tableColumn id="6" name="Calificación" dataDxfId="2"/>
+    <tableColumn id="8" name="Calificación VE" dataDxfId="3"/>
+    <tableColumn id="4" name="Valor Relativo" dataDxfId="2"/>
+    <tableColumn id="5" name="Candidato Ideal" dataDxfId="1"/>
+    <tableColumn id="6" name="Calificación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3240,363 +3268,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K6"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="28" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="28" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="1"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="28" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="28" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="1"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="35"/>
-      <c r="H6" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="1"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="19"/>
       <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="H49" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="17"/>
+      <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="19"/>
       <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17">
+        <v>2</v>
+      </c>
       <c r="H50" s="17">
+        <v>1</v>
+      </c>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="2">
         <v>2</v>
       </c>
-      <c r="I50" s="17">
+      <c r="G54" s="2">
+        <v>2</v>
+      </c>
+      <c r="H54" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="2">
+        <v>2</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2</v>
+      </c>
+      <c r="H55" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="9">
+        <v>3</v>
+      </c>
+      <c r="G56" s="9">
+        <v>3</v>
+      </c>
+      <c r="H56" s="10">
         <v>1</v>
       </c>
-      <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>13</v>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="20"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2">
+        <v>4</v>
+      </c>
+      <c r="H57" s="8">
+        <v>2</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="20"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2">
+        <v>3</v>
+      </c>
+      <c r="H58" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="20"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2">
         <v>2</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H59" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="14"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2">
         <v>2</v>
       </c>
-      <c r="I52" s="8">
+      <c r="H60" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="14"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9">
         <v>3</v>
       </c>
+      <c r="H61" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="2">
-        <v>2</v>
-      </c>
-      <c r="H53" s="2">
-        <v>2</v>
-      </c>
-      <c r="I53" s="8">
-        <v>3</v>
-      </c>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="14"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="10"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="9">
-        <v>3</v>
-      </c>
-      <c r="H54" s="9">
-        <v>3</v>
-      </c>
-      <c r="I54" s="10">
-        <v>1</v>
-      </c>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="13"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="20"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2">
-        <v>4</v>
-      </c>
-      <c r="I55" s="8">
-        <v>2</v>
-      </c>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="13"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="20"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2">
-        <v>3</v>
-      </c>
-      <c r="I56" s="8">
-        <v>3</v>
-      </c>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="13"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="20"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2">
-        <v>2</v>
-      </c>
-      <c r="I57" s="8">
-        <v>3</v>
-      </c>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="14"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2">
-        <v>2</v>
-      </c>
-      <c r="I58" s="8">
-        <v>2</v>
-      </c>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="14"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9">
-        <v>3</v>
-      </c>
-      <c r="I59" s="10">
-        <v>3</v>
-      </c>
+    <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D68" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="34">
+        <v>2.356789</v>
+      </c>
+      <c r="F68" s="34"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="4"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C60" s="14"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="10"/>
+    <row r="79" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="13"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-    </row>
-    <row r="64" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E64" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="30"/>
-      <c r="G64" s="31">
-        <v>2.356789</v>
-      </c>
-      <c r="H64" s="31"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="4"/>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="32"/>
+      <c r="F80" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A8:L8"/>
+  <mergeCells count="19">
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E68:F68"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -379,6 +379,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -386,21 +401,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -841,11 +841,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="185986872"/>
-        <c:axId val="185987256"/>
+        <c:axId val="159463864"/>
+        <c:axId val="159464256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185986872"/>
+        <c:axId val="159463864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +888,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185987256"/>
+        <c:crossAx val="159464256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185987256"/>
+        <c:axId val="159464256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +982,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185986872"/>
+        <c:crossAx val="159463864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1272,11 +1272,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="186796304"/>
-        <c:axId val="162269664"/>
+        <c:axId val="159465040"/>
+        <c:axId val="159465432"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="186796304"/>
+        <c:axId val="159465040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1319,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162269664"/>
+        <c:crossAx val="159465432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1327,7 +1327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162269664"/>
+        <c:axId val="159465432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186796304"/>
+        <c:crossAx val="159465040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1651,11 +1651,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="162270448"/>
-        <c:axId val="186556056"/>
+        <c:axId val="159466216"/>
+        <c:axId val="159466608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162270448"/>
+        <c:axId val="159466216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1698,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186556056"/>
+        <c:crossAx val="159466608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +1706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186556056"/>
+        <c:axId val="159466608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1757,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162270448"/>
+        <c:crossAx val="159466216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3268,10 +3268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,83 +3309,83 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="35" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="23"/>
       <c r="K4" s="22"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="35" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="23"/>
       <c r="K6" s="22"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -3628,34 +3628,41 @@
       <c r="D68" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="34">
+      <c r="E68" s="39">
         <v>2.356789</v>
       </c>
-      <c r="F68" s="34"/>
+      <c r="F68" s="39"/>
       <c r="G68" s="31"/>
       <c r="H68" s="21"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="79" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
+    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="32" t="s">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="32"/>
-      <c r="F80" s="32" t="s">
+      <c r="D78" s="37"/>
+      <c r="F78" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E68:F68"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
@@ -3668,13 +3675,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E68:F68"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$84</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -379,7 +382,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -389,18 +404,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -665,6 +668,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -841,11 +845,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="159463864"/>
-        <c:axId val="159464256"/>
+        <c:axId val="161742360"/>
+        <c:axId val="182673216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159463864"/>
+        <c:axId val="161742360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +892,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159464256"/>
+        <c:crossAx val="182673216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159464256"/>
+        <c:axId val="182673216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,6 +946,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -982,7 +987,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159463864"/>
+        <c:crossAx val="161742360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -996,6 +1001,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1075,6 +1081,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1272,11 +1279,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159465040"/>
-        <c:axId val="159465432"/>
+        <c:axId val="182776024"/>
+        <c:axId val="182780504"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="159465040"/>
+        <c:axId val="182776024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1326,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159465432"/>
+        <c:crossAx val="182780504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1327,7 +1334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159465432"/>
+        <c:axId val="182780504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1385,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159465040"/>
+        <c:crossAx val="182776024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,6 +1399,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1651,11 +1659,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="159466216"/>
-        <c:axId val="159466608"/>
+        <c:axId val="183195184"/>
+        <c:axId val="182855464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159466216"/>
+        <c:axId val="183195184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1706,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159466608"/>
+        <c:crossAx val="182855464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +1714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159466608"/>
+        <c:axId val="182855464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1765,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159466216"/>
+        <c:crossAx val="183195184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3270,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="I84" sqref="A1:I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,100 +3300,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="23"/>
       <c r="K4" s="22"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="23"/>
       <c r="K6" s="22"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -3628,34 +3636,37 @@
       <c r="D68" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="39">
+      <c r="E68" s="36">
         <v>2.356789</v>
       </c>
-      <c r="F68" s="39"/>
+      <c r="F68" s="36"/>
       <c r="G68" s="31"/>
       <c r="H68" s="21"/>
       <c r="I68" s="4"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="37" t="s">
+      <c r="C78" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="37"/>
-      <c r="F78" s="37" t="s">
+      <c r="D78" s="34"/>
+      <c r="F78" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C78:D78"/>
@@ -3672,9 +3683,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -382,10 +382,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -397,13 +400,10 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -845,11 +845,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="161742360"/>
-        <c:axId val="182673216"/>
+        <c:axId val="166360080"/>
+        <c:axId val="166360464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161742360"/>
+        <c:axId val="166360080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +892,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182673216"/>
+        <c:crossAx val="166360464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -900,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182673216"/>
+        <c:axId val="166360464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,7 +987,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161742360"/>
+        <c:crossAx val="166360080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1279,11 +1279,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182776024"/>
-        <c:axId val="182780504"/>
+        <c:axId val="166442168"/>
+        <c:axId val="166442552"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="182776024"/>
+        <c:axId val="166442168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1326,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182780504"/>
+        <c:crossAx val="166442552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1334,7 +1334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182780504"/>
+        <c:axId val="166442552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1385,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182776024"/>
+        <c:crossAx val="166442168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1511,7 +1511,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1600,7 +1599,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1659,11 +1657,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="183195184"/>
-        <c:axId val="182855464"/>
+        <c:axId val="166440592"/>
+        <c:axId val="188457752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183195184"/>
+        <c:axId val="166440592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1704,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182855464"/>
+        <c:crossAx val="188457752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1714,7 +1712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182855464"/>
+        <c:axId val="188457752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1765,7 +1763,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183195184"/>
+        <c:crossAx val="166440592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3278,8 +3276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="I84" sqref="A1:I84"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,69 +3298,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="23"/>
       <c r="K4" s="22"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="1"/>
@@ -3371,29 +3371,29 @@
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="38" t="s">
+      <c r="E6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="23"/>
       <c r="K6" s="22"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -3636,53 +3636,53 @@
       <c r="D68" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E68" s="37">
         <v>2.356789</v>
       </c>
-      <c r="F68" s="36"/>
+      <c r="F68" s="37"/>
       <c r="G68" s="31"/>
       <c r="H68" s="21"/>
       <c r="I68" s="4"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="34"/>
-      <c r="F78" s="34" t="s">
+      <c r="D78" s="35"/>
+      <c r="F78" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="F77:H77"/>
     <mergeCell ref="F78:H78"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="A8:I8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Modelo de Gestión por Competencias</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Firma Colaborador</t>
+  </si>
+  <si>
+    <t>Detalle</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -305,16 +308,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,15 +360,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -362,12 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -382,6 +404,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,14 +440,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -422,7 +471,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -452,7 +501,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -484,7 +533,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -522,7 +571,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -531,15 +580,58 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -563,6 +655,19 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -845,11 +950,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="166360080"/>
-        <c:axId val="166360464"/>
+        <c:axId val="165520720"/>
+        <c:axId val="165500144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="166360080"/>
+        <c:axId val="165520720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +997,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166360464"/>
+        <c:crossAx val="165500144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -900,7 +1005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166360464"/>
+        <c:axId val="165500144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,7 +1092,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166360080"/>
+        <c:crossAx val="165520720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1279,11 +1384,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166442168"/>
-        <c:axId val="166442552"/>
+        <c:axId val="186747968"/>
+        <c:axId val="186778920"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="166442168"/>
+        <c:axId val="186747968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1431,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166442552"/>
+        <c:crossAx val="186778920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1334,7 +1439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166442552"/>
+        <c:axId val="186778920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1490,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166442168"/>
+        <c:crossAx val="186747968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1511,6 +1616,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1560,66 +1666,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$G$49:$H$49</c:f>
+              <c:f>Hoja1!$D$50:$E$50</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1633,9 +1682,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$50:$H$50</c:f>
+              <c:f>Hoja1!$D$51:$E$51</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
@@ -1657,11 +1706,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="166440592"/>
-        <c:axId val="188457752"/>
+        <c:axId val="186795736"/>
+        <c:axId val="186807328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="166440592"/>
+        <c:axId val="186795736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,7 +1753,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188457752"/>
+        <c:crossAx val="186807328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1712,7 +1761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188457752"/>
+        <c:axId val="186807328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1781,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1763,7 +1812,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166440592"/>
+        <c:crossAx val="186795736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2996,12 +3045,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B53:H62" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B53:H62" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B53:H62"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="5"/>
-    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="4"/>
-    <tableColumn id="3" name="Método seleccionado"/>
+    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="6"/>
+    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="5"/>
+    <tableColumn id="3" name="Método seleccionado" dataDxfId="4"/>
     <tableColumn id="8" name="Calificación VE" dataDxfId="3"/>
     <tableColumn id="4" name="Valor Relativo" dataDxfId="2"/>
     <tableColumn id="5" name="Candidato Ideal" dataDxfId="1"/>
@@ -3276,16 +3325,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -3298,372 +3347,415 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="22"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="42"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="43"/>
+      <c r="C37" s="41"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="43"/>
+      <c r="C38" s="41"/>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="44"/>
+      <c r="C39" s="41"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="39"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17" t="s">
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H49" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="17"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17">
+      <c r="D50" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13">
         <v>2</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="13">
         <v>1</v>
       </c>
-      <c r="I50" s="17"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="D51" s="38">
+        <v>2</v>
+      </c>
+      <c r="E51" s="38">
+        <v>1</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="2">
+      <c r="C54" s="16"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="26">
         <v>2</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="26">
         <v>2</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="2">
+      <c r="C55" s="16"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="26">
         <v>2</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="26">
         <v>2</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="9">
+      <c r="C56" s="16"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="28">
         <v>3</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="28">
         <v>3</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="20"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26">
         <v>4</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="20"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26">
         <v>3</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="20"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2">
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26">
         <v>2</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="14"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2">
+      <c r="B60" s="10"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26">
         <v>2</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="14"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9">
+      <c r="B61" s="10"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28">
         <v>3</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="14"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="13"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="13"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="13"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
     </row>
     <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="37">
+      <c r="E68" s="36">
         <v>2.356789</v>
       </c>
-      <c r="F68" s="37"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="4"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="3"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="35"/>
-      <c r="F78" s="35" t="s">
+      <c r="D78" s="34"/>
+      <c r="F78" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E68:F68"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="E4:F4"/>
@@ -3672,17 +3764,6 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$87</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -98,7 +98,7 @@
     <t>Firma Colaborador</t>
   </si>
   <si>
-    <t>Detalle</t>
+    <t>Detalle AC</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +205,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -309,38 +315,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -349,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -416,9 +398,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,6 +410,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -437,23 +423,24 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,7 +782,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$G$53</c:f>
+              <c:f>Hoja1!$G$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -816,7 +803,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$54:$B$62</c:f>
+              <c:f>Hoja1!$B$57:$B$65</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -833,7 +820,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$54:$G$62</c:f>
+              <c:f>Hoja1!$G$57:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -870,7 +857,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$53</c:f>
+              <c:f>Hoja1!$H$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -891,7 +878,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$54:$B$62</c:f>
+              <c:f>Hoja1!$B$57:$B$65</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -908,7 +895,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$54:$H$62</c:f>
+              <c:f>Hoja1!$H$57:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -950,11 +937,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="165520720"/>
-        <c:axId val="165500144"/>
+        <c:axId val="187177728"/>
+        <c:axId val="187178112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165520720"/>
+        <c:axId val="187177728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +984,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165500144"/>
+        <c:crossAx val="187178112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1005,7 +992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165500144"/>
+        <c:axId val="187178112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1079,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165520720"/>
+        <c:crossAx val="187177728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1227,7 +1214,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$G$53</c:f>
+              <c:f>Hoja1!$G$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1250,7 +1237,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$54:$B$62</c:f>
+              <c:f>Hoja1!$B$57:$B$65</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1267,7 +1254,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$54:$G$62</c:f>
+              <c:f>Hoja1!$G$57:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1304,7 +1291,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$53</c:f>
+              <c:f>Hoja1!$H$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1327,7 +1314,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$54:$B$62</c:f>
+              <c:f>Hoja1!$B$57:$B$65</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1344,7 +1331,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$54:$H$62</c:f>
+              <c:f>Hoja1!$H$57:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1384,11 +1371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="186747968"/>
-        <c:axId val="186778920"/>
+        <c:axId val="165145656"/>
+        <c:axId val="187534600"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="186747968"/>
+        <c:axId val="165145656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1418,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186778920"/>
+        <c:crossAx val="187534600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1439,7 +1426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186778920"/>
+        <c:axId val="187534600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,7 +1477,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186747968"/>
+        <c:crossAx val="165145656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1706,11 +1693,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="186795736"/>
-        <c:axId val="186807328"/>
+        <c:axId val="187850472"/>
+        <c:axId val="187572456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186795736"/>
+        <c:axId val="187850472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1740,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186807328"/>
+        <c:crossAx val="187572456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1761,7 +1748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186807328"/>
+        <c:axId val="187572456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,7 +1799,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186795736"/>
+        <c:crossAx val="187850472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3045,8 +3032,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B53:H62" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="B53:H62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B56:H65" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B56:H65"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="6"/>
     <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="5"/>
@@ -3323,10 +3310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3347,129 +3334,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="32" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
       <c r="K4" s="18"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="18"/>
       <c r="J6" s="19"/>
       <c r="K6" s="18"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="40" t="s">
-        <v>23</v>
-      </c>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="40"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="42"/>
+      <c r="B36" s="41"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="43"/>
-      <c r="C37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="31"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="43"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="31"/>
     </row>
-    <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="44"/>
-      <c r="C39" s="41"/>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="41"/>
+      <c r="C39" s="31"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
+      <c r="B40" s="31"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D49" s="15"/>
@@ -3500,10 +3485,10 @@
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="38">
+      <c r="D51" s="30">
         <v>2</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51" s="30">
         <v>1</v>
       </c>
       <c r="F51" s="13"/>
@@ -3512,250 +3497,268 @@
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="C53" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="26">
-        <v>2</v>
-      </c>
-      <c r="G54" s="26">
-        <v>2</v>
-      </c>
-      <c r="H54" s="27">
-        <v>3</v>
-      </c>
+      <c r="C54" s="44"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="26">
-        <v>2</v>
-      </c>
-      <c r="G55" s="26">
-        <v>2</v>
-      </c>
-      <c r="H55" s="27">
-        <v>3</v>
-      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="28">
-        <v>3</v>
-      </c>
-      <c r="G56" s="28">
-        <v>3</v>
-      </c>
-      <c r="H56" s="29">
-        <v>1</v>
+      <c r="B56" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
+      <c r="B57" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="C57" s="16"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="26"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="26">
+        <v>2</v>
+      </c>
       <c r="G57" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
+      <c r="B58" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C58" s="16"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="26"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="26">
+        <v>2</v>
+      </c>
       <c r="G58" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
+      <c r="B59" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C59" s="16"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26">
-        <v>2</v>
-      </c>
-      <c r="H59" s="27">
+      <c r="F59" s="28">
         <v>3</v>
+      </c>
+      <c r="G59" s="28">
+        <v>3</v>
+      </c>
+      <c r="H59" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="26"/>
       <c r="G60" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28">
+      <c r="F61" s="26"/>
+      <c r="G61" s="26">
         <v>3</v>
       </c>
-      <c r="H61" s="29">
+      <c r="H61" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="29"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26">
+        <v>2</v>
+      </c>
+      <c r="H62" s="27">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="9"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26">
+        <v>2</v>
+      </c>
+      <c r="H63" s="27">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28">
+        <v>3</v>
+      </c>
+      <c r="H64" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
     </row>
-    <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D68" s="24" t="s">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="9"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+    </row>
+    <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D71" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E71" s="38">
         <v>2.356789</v>
       </c>
-      <c r="F68" s="36"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="3"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="3"/>
     </row>
-    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
+    <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="34" t="s">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="34"/>
-      <c r="F78" s="34" t="s">
+      <c r="D81" s="36"/>
+      <c r="F81" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E68:F68"/>
+  <mergeCells count="22">
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:G54"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="E4:F4"/>
@@ -3764,6 +3767,18 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -375,13 +375,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,34 +395,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,11 +408,78 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -663,45 +696,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -760,7 +754,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -937,11 +930,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="187177728"/>
-        <c:axId val="187178112"/>
+        <c:axId val="164926888"/>
+        <c:axId val="164927272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187177728"/>
+        <c:axId val="164926888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +977,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187178112"/>
+        <c:crossAx val="164927272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -992,7 +985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187178112"/>
+        <c:axId val="164927272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1031,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1079,7 +1071,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187177728"/>
+        <c:crossAx val="164926888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1093,7 +1085,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1173,7 +1164,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1371,11 +1361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165145656"/>
-        <c:axId val="187534600"/>
+        <c:axId val="190417488"/>
+        <c:axId val="190417872"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="165145656"/>
+        <c:axId val="190417488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1408,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187534600"/>
+        <c:crossAx val="190417872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1426,7 +1416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187534600"/>
+        <c:axId val="190417872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +1467,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165145656"/>
+        <c:crossAx val="190417488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1491,7 +1481,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1693,11 +1682,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="187850472"/>
-        <c:axId val="187572456"/>
+        <c:axId val="190390816"/>
+        <c:axId val="190391200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187850472"/>
+        <c:axId val="190390816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,7 +1729,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187572456"/>
+        <c:crossAx val="190391200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1748,7 +1737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187572456"/>
+        <c:axId val="190391200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,7 +1788,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187850472"/>
+        <c:crossAx val="190390816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3032,16 +3021,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B56:H65" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B56:H65" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="B56:H65"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="6"/>
-    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="5"/>
-    <tableColumn id="3" name="Método seleccionado" dataDxfId="4"/>
-    <tableColumn id="8" name="Calificación VE" dataDxfId="3"/>
-    <tableColumn id="4" name="Valor Relativo" dataDxfId="2"/>
-    <tableColumn id="5" name="Candidato Ideal" dataDxfId="1"/>
-    <tableColumn id="6" name="Calificación" dataDxfId="0"/>
+    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="7"/>
+    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="6"/>
+    <tableColumn id="3" name="Método seleccionado" dataDxfId="5"/>
+    <tableColumn id="8" name="Calificación VE" dataDxfId="4"/>
+    <tableColumn id="4" name="Valor Relativo" dataDxfId="3"/>
+    <tableColumn id="5" name="Candidato Ideal" dataDxfId="2"/>
+    <tableColumn id="6" name="Calificación" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3313,14 +3302,14 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:G54"/>
+      <selection activeCell="B56" sqref="B56:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
@@ -3334,127 +3323,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
       <c r="K4" s="18"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="18"/>
       <c r="J6" s="19"/>
       <c r="K6" s="18"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="40"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="41"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="41"/>
-      <c r="C37" s="31"/>
+      <c r="C37" s="28"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="41"/>
-      <c r="C38" s="31"/>
+      <c r="C38" s="28"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
-      <c r="C39" s="31"/>
+      <c r="C39" s="28"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
+      <c r="B40" s="28"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D49" s="15"/>
@@ -3469,10 +3458,10 @@
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F50" s="13"/>
@@ -3485,10 +3474,10 @@
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="30">
+      <c r="D51" s="27">
         <v>2</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="27">
         <v>1</v>
       </c>
       <c r="F51" s="13"/>
@@ -3497,30 +3486,30 @@
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="44"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
@@ -3533,25 +3522,25 @@
       <c r="I55" s="13"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="H56" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3562,13 +3551,13 @@
       <c r="C57" s="16"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="26">
+      <c r="F57" s="23">
         <v>2</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="23">
         <v>2</v>
       </c>
-      <c r="H57" s="27">
+      <c r="H57" s="24">
         <v>3</v>
       </c>
     </row>
@@ -3579,13 +3568,13 @@
       <c r="C58" s="16"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="26">
+      <c r="F58" s="23">
         <v>2</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G58" s="23">
         <v>2</v>
       </c>
-      <c r="H58" s="27">
+      <c r="H58" s="24">
         <v>3</v>
       </c>
     </row>
@@ -3596,13 +3585,13 @@
       <c r="C59" s="16"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="28">
+      <c r="F59" s="25">
         <v>3</v>
       </c>
-      <c r="G59" s="28">
+      <c r="G59" s="25">
         <v>3</v>
       </c>
-      <c r="H59" s="29">
+      <c r="H59" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3611,11 +3600,11 @@
       <c r="C60" s="16"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26">
+      <c r="F60" s="23"/>
+      <c r="G60" s="23">
         <v>4</v>
       </c>
-      <c r="H60" s="27">
+      <c r="H60" s="24">
         <v>2</v>
       </c>
     </row>
@@ -3624,11 +3613,11 @@
       <c r="C61" s="16"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26">
+      <c r="F61" s="23"/>
+      <c r="G61" s="23">
         <v>3</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="24">
         <v>3</v>
       </c>
     </row>
@@ -3637,11 +3626,11 @@
       <c r="C62" s="16"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26">
+      <c r="F62" s="23"/>
+      <c r="G62" s="23">
         <v>2</v>
       </c>
-      <c r="H62" s="27">
+      <c r="H62" s="24">
         <v>3</v>
       </c>
     </row>
@@ -3650,11 +3639,11 @@
       <c r="C63" s="16"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26">
+      <c r="F63" s="23"/>
+      <c r="G63" s="23">
         <v>2</v>
       </c>
-      <c r="H63" s="27">
+      <c r="H63" s="24">
         <v>2</v>
       </c>
     </row>
@@ -3663,11 +3652,11 @@
       <c r="C64" s="16"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28">
+      <c r="F64" s="25"/>
+      <c r="G64" s="25">
         <v>3</v>
       </c>
-      <c r="H64" s="29">
+      <c r="H64" s="26">
         <v>3</v>
       </c>
     </row>
@@ -3676,9 +3665,9 @@
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="29"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="26"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="9"/>
@@ -3726,37 +3715,43 @@
       <c r="J70" s="12"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="40">
         <v>2.356789</v>
       </c>
-      <c r="F71" s="38"/>
-      <c r="G71" s="25"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="22"/>
       <c r="H71" s="17"/>
       <c r="I71" s="3"/>
     </row>
     <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="36"/>
-      <c r="F81" s="36" t="s">
+      <c r="D81" s="38"/>
+      <c r="F81" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E71:F71"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="D53:G54"/>
     <mergeCell ref="A1:I1"/>
@@ -3767,18 +3762,12 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E71:F71"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$69</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Modelo de Gestión por Competencias</t>
   </si>
@@ -77,12 +77,6 @@
     <t>Promedio ponderado</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>ECE</t>
-  </si>
-  <si>
     <t>Método seleccionado</t>
   </si>
   <si>
@@ -100,12 +94,18 @@
   <si>
     <t>Detalle AC</t>
   </si>
+  <si>
+    <t>Evaluación AC</t>
+  </si>
+  <si>
+    <t>Evaluación mediante Entrevista Conductual Estructurada y Assessment Center  con proporciones 40% y 60% respectivamente.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +191,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,14 +212,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -327,11 +328,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,12 +403,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -420,66 +451,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -696,6 +684,40 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -754,6 +776,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -775,7 +798,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$G$56</c:f>
+              <c:f>Hoja1!$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -796,7 +819,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$57:$B$65</c:f>
+              <c:f>Hoja1!$B$39:$B$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -813,7 +836,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$57:$G$65</c:f>
+              <c:f>Hoja1!$G$39:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -850,7 +873,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$56</c:f>
+              <c:f>Hoja1!$H$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -871,7 +894,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$57:$B$65</c:f>
+              <c:f>Hoja1!$B$39:$B$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -888,7 +911,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$57:$H$65</c:f>
+              <c:f>Hoja1!$H$39:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -930,11 +953,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="164926888"/>
-        <c:axId val="164927272"/>
+        <c:axId val="229017320"/>
+        <c:axId val="230032632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164926888"/>
+        <c:axId val="229017320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +1000,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164927272"/>
+        <c:crossAx val="230032632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -985,7 +1008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164927272"/>
+        <c:axId val="230032632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,6 +1054,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1071,7 +1095,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164926888"/>
+        <c:crossAx val="229017320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1085,6 +1109,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1164,6 +1189,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1204,7 +1230,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$G$56</c:f>
+              <c:f>Hoja1!$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1227,7 +1253,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$57:$B$65</c:f>
+              <c:f>Hoja1!$B$39:$B$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1244,7 +1270,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$57:$G$65</c:f>
+              <c:f>Hoja1!$G$39:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1281,7 +1307,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$56</c:f>
+              <c:f>Hoja1!$H$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1304,7 +1330,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$57:$B$65</c:f>
+              <c:f>Hoja1!$B$39:$B$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1321,7 +1347,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$57:$H$65</c:f>
+              <c:f>Hoja1!$H$39:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1361,11 +1387,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190417488"/>
-        <c:axId val="190417872"/>
+        <c:axId val="230033416"/>
+        <c:axId val="230033808"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="190417488"/>
+        <c:axId val="230033416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1434,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190417872"/>
+        <c:crossAx val="230033808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1416,7 +1442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190417872"/>
+        <c:axId val="230033808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1493,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190417488"/>
+        <c:crossAx val="230033416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1481,6 +1507,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1547,337 +1574,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CR" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Aporte de AC (60%) y ECE (40%) a la calificación</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CR" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$D$50:$E$50</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ECE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$51:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="190390816"/>
-        <c:axId val="190391200"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="190390816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="190391200"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="190391200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="190390816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2422,522 +2119,19 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2961,13 +2155,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>4760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2987,50 +2181,20 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514347</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723899</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B56:H65" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="B56:H65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B38:H47" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B38:H47"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="7"/>
-    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="6"/>
-    <tableColumn id="3" name="Método seleccionado" dataDxfId="5"/>
-    <tableColumn id="8" name="Calificación VE" dataDxfId="4"/>
-    <tableColumn id="4" name="Valor Relativo" dataDxfId="3"/>
-    <tableColumn id="5" name="Candidato Ideal" dataDxfId="2"/>
-    <tableColumn id="6" name="Calificación" dataDxfId="1"/>
+    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="6"/>
+    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="5"/>
+    <tableColumn id="3" name="Método seleccionado" dataDxfId="4"/>
+    <tableColumn id="8" name="Calificación VE" dataDxfId="3"/>
+    <tableColumn id="4" name="Valor Relativo" dataDxfId="2"/>
+    <tableColumn id="5" name="Candidato Ideal" dataDxfId="1"/>
+    <tableColumn id="6" name="Calificación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3299,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:H56"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,437 +2487,405 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
       <c r="K4" s="18"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="18"/>
       <c r="J6" s="19"/>
       <c r="K6" s="18"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
-      <c r="C37" s="28"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
-      <c r="C38" s="28"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-      <c r="C39" s="28"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="28"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="E38" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13">
+      <c r="F38" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="23">
         <v>2</v>
       </c>
-      <c r="H50" s="13">
+      <c r="G39" s="23">
+        <v>2</v>
+      </c>
+      <c r="H39" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="23">
+        <v>2</v>
+      </c>
+      <c r="G40" s="23">
+        <v>2</v>
+      </c>
+      <c r="H40" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="25">
+        <v>3</v>
+      </c>
+      <c r="G41" s="25">
+        <v>3</v>
+      </c>
+      <c r="H41" s="26">
         <v>1</v>
       </c>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="27">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23">
+        <v>4</v>
+      </c>
+      <c r="H42" s="24">
         <v>2</v>
       </c>
-      <c r="E51" s="27">
-        <v>1</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="43" t="s">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23">
+        <v>3</v>
+      </c>
+      <c r="H43" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23">
+        <v>2</v>
+      </c>
+      <c r="H44" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23">
+        <v>2</v>
+      </c>
+      <c r="H45" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25">
+        <v>3</v>
+      </c>
+      <c r="H46" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="9"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="9"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D53" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="35">
+        <v>2.356789</v>
+      </c>
+      <c r="F53" s="35"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="33"/>
+      <c r="F63" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="23">
-        <v>2</v>
-      </c>
-      <c r="G57" s="23">
-        <v>2</v>
-      </c>
-      <c r="H57" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="23">
-        <v>2</v>
-      </c>
-      <c r="G58" s="23">
-        <v>2</v>
-      </c>
-      <c r="H58" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="25">
-        <v>3</v>
-      </c>
-      <c r="G59" s="25">
-        <v>3</v>
-      </c>
-      <c r="H59" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23">
-        <v>4</v>
-      </c>
-      <c r="H60" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23">
-        <v>3</v>
-      </c>
-      <c r="H61" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23">
-        <v>2</v>
-      </c>
-      <c r="H62" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="10"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23">
-        <v>2</v>
-      </c>
-      <c r="H63" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="10"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25">
-        <v>3</v>
-      </c>
-      <c r="H64" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="26"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="9"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="9"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-    </row>
-    <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D71" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="40">
-        <v>2.356789</v>
-      </c>
-      <c r="F71" s="40"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-    </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C81" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="38"/>
-      <c r="F81" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:G54"/>
+  <mergeCells count="23">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="E4:F4"/>
@@ -3762,12 +2894,21 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A8:I8"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:G36"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B8:H8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
